--- a/biology/Mycologie/Peltigerales/Peltigerales.xlsx
+++ b/biology/Mycologie/Peltigerales/Peltigerales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Peltigerales sont un ordre de champignons lichénisés dans la classe des Lecanoromycetes. Ce sont pour la plupart des lichens aux thalles foliacés, parfois de grande taille, certains étant encroûtants voire squamuleux (formés de petites écailles). Tous les Lecanoromycetes dont les photobiontes sont des cyanobactéries appartiennent aux Peltigerales[1]. L'ordre comporte actuellement 45 genres distribués en 7 familles, surtout représentées dans l'hémisphère nord, à l'exception des Lobariaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Peltigerales sont un ordre de champignons lichénisés dans la classe des Lecanoromycetes. Ce sont pour la plupart des lichens aux thalles foliacés, parfois de grande taille, certains étant encroûtants voire squamuleux (formés de petites écailles). Tous les Lecanoromycetes dont les photobiontes sont des cyanobactéries appartiennent aux Peltigerales. L'ordre comporte actuellement 45 genres distribués en 7 familles, surtout représentées dans l'hémisphère nord, à l'exception des Lobariaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Outline of Ascomycota — 2009[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Outline of Ascomycota — 2009 :
 Sous-ordre Collematineae
 Coccocarpiaceae
 Collemataceae
@@ -523,7 +537,7 @@
 Lobariaceae
 Nephromataceae
 Peltigeraceae
-Ce sous-ordre comporte en outre le genre Massalongia qui n'est pour l'instant rattaché à aucune famille (incertae sedis)[3], en dépit de la proposition de créer une nouvelle famille, les Massalongiaceae, pour Massalongia et deux autres genres appartenant à l'heure actuelle aux Placynthiaceae[4].</t>
+Ce sous-ordre comporte en outre le genre Massalongia qui n'est pour l'instant rattaché à aucune famille (incertae sedis), en dépit de la proposition de créer une nouvelle famille, les Massalongiaceae, pour Massalongia et deux autres genres appartenant à l'heure actuelle aux Placynthiaceae.</t>
         </is>
       </c>
     </row>
